--- a/output/unscheduled_courses.xlsx
+++ b/output/unscheduled_courses.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>B1-CS366</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -488,23 +488,23 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>LAB</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>No computer lab available (Needs 107 capacity); No computer lab available (Needs 110 capacity)</t>
+          <t>No suitable room found (Needs 200 capacity)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>LAB</t>
+          <t>LEC, TUT</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>No computer lab available (Needs 85 capacity)</t>
+          <t>No suitable room found (Needs 200 capacity); No suitable room found (Needs 170 capacity); Could not find suitable slot (Needs 200 capacity)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -542,53 +542,53 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>LAB</t>
+          <t>LEC, LAB</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>No computer lab available (Needs 85 capacity)</t>
+          <t>Could not find suitable slot (Needs 66 capacity); No computer lab available (Needs 66 capacity)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>B1-CS366</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>LEC, LAB</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>No suitable room found (Needs 200 capacity)</t>
+          <t>Could not find suitable slot (Needs 66 capacity); No computer lab available (Needs 66 capacity)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>B3-DS458</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Common_7th</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
@@ -597,114 +597,114 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>No suitable room found (Needs 200 capacity); Could not find suitable slot (Needs 200 capacity)</t>
+          <t>Could not find suitable slot (Needs 70 capacity)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>B3-CS468</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>Common_7th</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>LAB</t>
+          <t>LEC, TUT</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>No computer lab available (Needs 110 capacity)</t>
+          <t>Could not find suitable slot (Needs 70 capacity)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>B3-CS473</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>Common_7th</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>LAB</t>
+          <t>LEC, TUT</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>No computer lab available (Needs 110 capacity)</t>
+          <t>Could not find suitable slot (Needs 70 capacity)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>B3-NEW</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>Common_7th</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>LEC, LAB</t>
+          <t>LEC, TUT</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 66 capacity); No computer lab available (Needs 66 capacity)</t>
+          <t>Could not find suitable slot (Needs 70 capacity)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>B4-CS470</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>Common_7th</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>LEC, LAB</t>
+          <t>LEC, TUT</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 66 capacity); No computer lab available (Needs 66 capacity)</t>
+          <t>Could not find suitable slot (Needs 70 capacity)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>B3-CS457</t>
+          <t>B4-DS102</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -722,14 +722,14 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 110 capacity)</t>
+          <t>Could not find suitable slot (Needs 200 capacity)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>B3-DS458</t>
+          <t>B4-MA452</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>B3-CS468</t>
+          <t>B4-EC463</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>B3-CS473</t>
+          <t>B1-DS456</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -797,14 +797,14 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>Could not find suitable slot (Needs 110 capacity)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
+          <t>B1-EC456</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -829,7 +829,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>B4-CS470</t>
+          <t>B1-DS401</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -847,14 +847,14 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>Could not find suitable slot (Needs 110 capacity)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>B4-DS102</t>
+          <t>B2-EC462</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -872,14 +872,14 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 200 capacity)</t>
+          <t>Could not find suitable slot (Needs 70 capacity)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>B4-MA452</t>
+          <t>B2-EC465</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>B4-EC463</t>
+          <t>B2-PH454</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -929,7 +929,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>B1-DS456</t>
+          <t>B3-CS457</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -948,131 +948,6 @@
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Could not find suitable slot (Needs 110 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>B1-EC456</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Common_7th</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>B1-DS401</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Common_7th</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 110 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>B2-EC462</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Common_7th</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>B2-EC465</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Common_7th</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>B2-PH454</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Common_7th</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
         </is>
       </c>
     </row>

--- a/output/unscheduled_courses.xlsx
+++ b/output/unscheduled_courses.xlsx
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>B1-CS366</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -488,23 +488,23 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>No suitable room found (Needs 200 capacity)</t>
+          <t>No computer lab available (Needs 107 capacity); No computer lab available (Needs 110 capacity)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>LEC, TUT</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>No suitable room found (Needs 200 capacity); No suitable room found (Needs 170 capacity); Could not find suitable slot (Needs 200 capacity)</t>
+          <t>No computer lab available (Needs 85 capacity)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS264-C004</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -542,24 +542,24 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>LEC, LAB</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 66 capacity); No computer lab available (Needs 66 capacity)</t>
+          <t>Could not find suitable slot (Needs 170 capacity)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>HS261-C004</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -567,28 +567,28 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>LEC, LAB</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 66 capacity); No computer lab available (Needs 66 capacity)</t>
+          <t>Could not find suitable slot (Needs 170 capacity)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>B3-DS458</t>
+          <t>B1-CS366-C004</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
@@ -597,23 +597,23 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>No suitable room found (Needs 200 capacity)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>B3-CS468</t>
+          <t>B2-ASD352-C004</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
@@ -622,23 +622,23 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>No suitable room found (Needs 200 capacity)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>B3-CS473</t>
+          <t>CS304-C004</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
@@ -647,23 +647,23 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>Could not find suitable slot (Needs 140 capacity)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
+          <t>CS309-C004</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
@@ -672,23 +672,23 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>Could not find suitable slot (Needs 140 capacity)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>B4-CS470</t>
+          <t>MA162-C004</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
@@ -697,73 +697,73 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>Could not find suitable slot (Needs 215 capacity)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>B4-DS102</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>LEC, TUT</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 200 capacity)</t>
+          <t>No computer lab available (Needs 110 capacity)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>B4-MA452</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>LEC, TUT</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>No computer lab available (Needs 110 capacity)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>B4-EC463</t>
+          <t>MA262-C004</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
@@ -772,73 +772,73 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>Could not find suitable slot (Needs 170 capacity)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>B1-DS456</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>LEC, TUT</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 110 capacity)</t>
+          <t>No computer lab available (Needs 110 capacity)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>B1-EC456</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>LEC, TUT</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>No computer lab available (Needs 110 capacity)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>B1-DS401</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
@@ -847,23 +847,23 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 110 capacity)</t>
+          <t>No suitable room found (Needs 170 capacity)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>B2-EC462</t>
+          <t>MA261-C004</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
@@ -872,39 +872,39 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>Could not find suitable slot (Needs 170 capacity)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>B2-EC465</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Common_7th</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>LEC, TUT</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>No computer lab available (Needs 66 capacity)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>B2-PH454</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -922,14 +922,14 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 70 capacity)</t>
+          <t>Could not schedule basket B2 (Needs 1230 capacity)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>B3-CS457</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 110 capacity)</t>
+          <t>Could not schedule basket B4 (Needs 1230 capacity)</t>
         </is>
       </c>
     </row>

--- a/output/unscheduled_courses.xlsx
+++ b/output/unscheduled_courses.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>B1-CS366</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -513,23 +513,23 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>LAB</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>No computer lab available (Needs 85 capacity)</t>
+          <t>No suitable room found (Needs 200 capacity)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>CS264-C004</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -547,407 +547,107 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 170 capacity)</t>
+          <t>No suitable room found (Needs 200 capacity); No suitable room found (Needs 170 capacity)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>HS261-C004</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 170 capacity)</t>
+          <t>No computer lab available (Needs 110 capacity)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>B1-CS366-C004</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>LEC, TUT</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>No suitable room found (Needs 200 capacity)</t>
+          <t>No computer lab available (Needs 110 capacity)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>B2-ASD352-C004</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>LEC, TUT</t>
+          <t>LEC, LAB</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>No suitable room found (Needs 200 capacity)</t>
+          <t>Could not find suitable slot (Needs 66 capacity); No computer lab available (Needs 66 capacity)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>CS304-C004</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>LEC, TUT</t>
+          <t>LEC, LAB</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Could not find suitable slot (Needs 140 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>CS309-C004</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 140 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>MA162-C004</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 215 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>No computer lab available (Needs 110 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>No computer lab available (Needs 110 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>MA262-C004</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 170 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>No computer lab available (Needs 110 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>No computer lab available (Needs 110 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>B2-ASD352</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>No suitable room found (Needs 170 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>MA261-C004</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 170 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>No computer lab available (Needs 66 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Common_7th</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Could not schedule basket B2 (Needs 1230 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Common_7th</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>LEC, TUT</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Could not schedule basket B4 (Needs 1230 capacity)</t>
+          <t>Could not find suitable slot (Needs 66 capacity); No computer lab available (Needs 66 capacity)</t>
         </is>
       </c>
     </row>

--- a/output/unscheduled_courses.xlsx
+++ b/output/unscheduled_courses.xlsx
@@ -38,8 +38,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFD700"/>
-        <bgColor rgb="00FFD700"/>
+        <fgColor rgb="00E3F2FD"/>
+        <bgColor rgb="00E3F2FD"/>
       </patternFill>
     </fill>
   </fills>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>B1-CS366</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -488,166 +488,41 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>LAB</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>No computer lab available (Needs 107 capacity); No computer lab available (Needs 110 capacity)</t>
+          <t>No suitable room found (Needs 200 capacity)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>B1-CS366</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>LAB</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>No suitable room found (Needs 200 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>B2-ASD352</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>LEC</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>No suitable room found (Needs 200 capacity); No suitable room found (Needs 170 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
           <t>No computer lab available (Needs 110 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>No computer lab available (Needs 110 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>LEC, LAB</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 66 capacity); No computer lab available (Needs 66 capacity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>LEC, LAB</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot (Needs 66 capacity); No computer lab available (Needs 66 capacity)</t>
         </is>
       </c>
     </row>
